--- a/alldatacombined.xlsx
+++ b/alldatacombined.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68838f1fe6e7078e/Desktop/Madhu/Science Fair 2526/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68838F1FE6E7078E/Desktop/Madhu/Science Fair 2526/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="8_{D4975D38-5CCC-4F84-A7D1-11DB0D380659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3B2BB6E-EC79-4B29-98EC-AD07A198FF15}"/>
@@ -467,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E93A4A9-B1D0-4CAE-863D-2E35258FD6BB}">
   <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="188" workbookViewId="0">
+      <selection activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5546875" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
